--- a/Result_log.xlsx
+++ b/Result_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\412210037\Documents\Project\Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F081CA-7E35-45BB-B44A-51C7D30B60FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF41D53-EACC-4A80-A08D-BFA184114BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>訓練次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,12 +244,44 @@
     <t>跟第10次訓練結果滿像的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>闌尾炎資料前後20張 + 10個健康的人部分遮罩(2n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scane - TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scane - FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scane - FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified - Self test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練資料數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證資料數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +333,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +397,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -390,11 +442,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -413,9 +537,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,7 +558,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,6 +581,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9933FF"/>
+      <color rgb="FFFF3399"/>
+      <color rgb="FFCC0099"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFFF99CC"/>
@@ -718,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -734,43 +879,67 @@
     <col min="6" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="16" max="16" width="31.25" customWidth="1"/>
+    <col min="18" max="18" width="9" style="16"/>
+    <col min="19" max="19" width="31.25" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="28"/>
+      <c r="M1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="T1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="AE1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AL1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -813,17 +982,77 @@
       <c r="O2" t="s">
         <v>34</v>
       </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
       <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -860,8 +1089,59 @@
       <c r="O3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>66</v>
+      </c>
+      <c r="U3">
+        <v>672</v>
+      </c>
+      <c r="V3">
+        <v>26</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1075</v>
+      </c>
+      <c r="AC3">
+        <v>269</v>
+      </c>
+      <c r="AE3">
+        <v>43</v>
+      </c>
+      <c r="AF3">
+        <v>356</v>
+      </c>
+      <c r="AG3">
+        <v>17</v>
+      </c>
+      <c r="AH3">
+        <v>6</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
       <c r="J4">
         <v>0.77</v>
@@ -878,8 +1158,53 @@
       <c r="O4" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P4" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>43</v>
+      </c>
+      <c r="U4" s="3">
+        <v>298</v>
+      </c>
+      <c r="V4" s="3">
+        <v>49</v>
+      </c>
+      <c r="W4" s="15">
+        <v>10</v>
+      </c>
+      <c r="X4" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>124</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -916,8 +1241,53 @@
       <c r="O5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>63</v>
+      </c>
+      <c r="U5">
+        <v>698</v>
+      </c>
+      <c r="V5">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>35</v>
+      </c>
+      <c r="AF5">
+        <v>277</v>
+      </c>
+      <c r="AG5">
+        <v>25</v>
+      </c>
+      <c r="AH5">
+        <v>6</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="J6">
         <v>0.7</v>
@@ -934,11 +1304,20 @@
       <c r="O6">
         <v>15</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="J7">
         <v>0.7</v>
       </c>
@@ -954,8 +1333,17 @@
       <c r="O7">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="J8">
         <v>0.77</v>
       </c>
@@ -971,8 +1359,53 @@
       <c r="O8" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P8" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>36</v>
+      </c>
+      <c r="U8" s="3">
+        <v>229</v>
+      </c>
+      <c r="V8" s="3">
+        <v>56</v>
+      </c>
+      <c r="W8" s="3">
+        <v>10</v>
+      </c>
+      <c r="X8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>93</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>45</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1009,8 +1442,59 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>85</v>
+      </c>
+      <c r="U9">
+        <v>741</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2150</v>
+      </c>
+      <c r="AC9">
+        <v>269</v>
+      </c>
+      <c r="AE9">
+        <v>51</v>
+      </c>
+      <c r="AF9">
+        <v>360</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>6</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="J10">
         <v>0.77</v>
@@ -1027,8 +1511,53 @@
       <c r="O10" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P10" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>4</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>54</v>
+      </c>
+      <c r="U10" s="15">
+        <v>266</v>
+      </c>
+      <c r="V10" s="15">
+        <v>38</v>
+      </c>
+      <c r="W10" s="15">
+        <v>10</v>
+      </c>
+      <c r="X10" s="15">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>138</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1065,8 +1594,35 @@
       <c r="O11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>79</v>
+      </c>
+      <c r="U11">
+        <v>782</v>
+      </c>
+      <c r="V11">
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>0.77</v>
       </c>
@@ -1082,8 +1638,35 @@
       <c r="O12" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P12" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>67</v>
+      </c>
+      <c r="U12" s="15">
+        <v>388</v>
+      </c>
+      <c r="V12" s="15">
+        <v>25</v>
+      </c>
+      <c r="W12" s="15">
+        <v>10</v>
+      </c>
+      <c r="X12" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1120,8 +1703,35 @@
       <c r="O13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>61</v>
+      </c>
+      <c r="U13">
+        <v>275</v>
+      </c>
+      <c r="V13">
+        <v>31</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="H14" s="1"/>
       <c r="J14">
         <v>0.77</v>
@@ -1138,8 +1748,35 @@
       <c r="O14" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>44</v>
+      </c>
+      <c r="U14" s="15">
+        <v>149</v>
+      </c>
+      <c r="V14" s="15">
+        <v>48</v>
+      </c>
+      <c r="W14" s="15">
+        <v>10</v>
+      </c>
+      <c r="X14" s="15">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1176,8 +1813,35 @@
       <c r="O15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>73</v>
+      </c>
+      <c r="U15">
+        <v>415</v>
+      </c>
+      <c r="V15">
+        <v>19</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="J16">
         <v>0.77</v>
@@ -1194,8 +1858,35 @@
       <c r="O16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P16" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>62</v>
+      </c>
+      <c r="U16" s="15">
+        <v>221</v>
+      </c>
+      <c r="V16" s="15">
+        <v>30</v>
+      </c>
+      <c r="W16" s="15">
+        <v>10</v>
+      </c>
+      <c r="X16" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1232,8 +1923,35 @@
       <c r="O17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>64</v>
+      </c>
+      <c r="U17">
+        <v>219</v>
+      </c>
+      <c r="V17">
+        <v>28</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H18" s="1"/>
       <c r="J18">
         <v>0.77</v>
@@ -1250,8 +1968,35 @@
       <c r="O18" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P18" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>48</v>
+      </c>
+      <c r="U18" s="15">
+        <v>114</v>
+      </c>
+      <c r="V18" s="15">
+        <v>44</v>
+      </c>
+      <c r="W18" s="15">
+        <v>10</v>
+      </c>
+      <c r="X18" s="15">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1288,11 +2033,38 @@
       <c r="O19">
         <v>9</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>76</v>
+      </c>
+      <c r="U19">
+        <v>262</v>
+      </c>
+      <c r="V19">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>0.77</v>
       </c>
@@ -1308,8 +2080,35 @@
       <c r="O20" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P20" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>4</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>60</v>
+      </c>
+      <c r="U20" s="15">
+        <v>130</v>
+      </c>
+      <c r="V20" s="15">
+        <v>32</v>
+      </c>
+      <c r="W20" s="15">
+        <v>10</v>
+      </c>
+      <c r="X20" s="15">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1346,8 +2145,35 @@
       <c r="O21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>54</v>
+      </c>
+      <c r="U21">
+        <v>127</v>
+      </c>
+      <c r="V21">
+        <v>38</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="12" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H22" s="13"/>
       <c r="J22" s="12">
         <v>0.77</v>
@@ -1364,11 +2190,38 @@
       <c r="O22" s="15">
         <v>21</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>3</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="20">
+        <v>48</v>
+      </c>
+      <c r="U22" s="8">
+        <v>66</v>
+      </c>
+      <c r="V22" s="8">
+        <v>44</v>
+      </c>
+      <c r="W22" s="8">
+        <v>10</v>
+      </c>
+      <c r="X22" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1405,8 +2258,35 @@
       <c r="O23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>54</v>
+      </c>
+      <c r="U23">
+        <v>147</v>
+      </c>
+      <c r="V23">
+        <v>38</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="H24" s="6"/>
       <c r="J24" s="5">
@@ -1424,11 +2304,38 @@
       <c r="O24" s="8">
         <v>20</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>3</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T24" s="8">
+        <v>43</v>
+      </c>
+      <c r="U24" s="8">
+        <v>66</v>
+      </c>
+      <c r="V24" s="8">
+        <v>49</v>
+      </c>
+      <c r="W24" s="8">
+        <v>9</v>
+      </c>
+      <c r="X24" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1461,8 +2368,11 @@
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1478,8 +2388,11 @@
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1512,8 +2425,11 @@
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1526,8 +2442,11 @@
       <c r="M28" s="11"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1564,8 +2483,35 @@
       <c r="O29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>57</v>
+      </c>
+      <c r="U29">
+        <v>91</v>
+      </c>
+      <c r="V29">
+        <v>35</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="1"/>
       <c r="J30">
         <v>0.77</v>
@@ -1582,11 +2528,38 @@
       <c r="O30" s="3">
         <v>34</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2</v>
+      </c>
+      <c r="R30" s="17">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T30" s="20">
+        <v>43</v>
+      </c>
+      <c r="U30" s="8">
+        <v>44</v>
+      </c>
+      <c r="V30" s="8">
+        <v>49</v>
+      </c>
+      <c r="W30" s="8">
+        <v>10</v>
+      </c>
+      <c r="X30" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1623,8 +2596,35 @@
       <c r="O31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>74</v>
+      </c>
+      <c r="U31">
+        <v>185</v>
+      </c>
+      <c r="V31">
+        <v>18</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>0.77</v>
       </c>
@@ -1640,11 +2640,38 @@
       <c r="O32" s="3">
         <v>26</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T32" s="15">
+        <v>50</v>
+      </c>
+      <c r="U32" s="15">
+        <v>75</v>
+      </c>
+      <c r="V32" s="15">
+        <v>42</v>
+      </c>
+      <c r="W32" s="15">
+        <v>10</v>
+      </c>
+      <c r="X32" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>13</v>
       </c>
@@ -1681,8 +2708,35 @@
       <c r="O33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>56</v>
+      </c>
+      <c r="U33">
+        <v>94</v>
+      </c>
+      <c r="V33">
+        <v>36</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H34" s="1"/>
       <c r="J34">
         <v>0.77</v>
@@ -1699,11 +2753,38 @@
       <c r="O34" s="3">
         <v>21</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>3</v>
+      </c>
+      <c r="R34" s="17">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T34" s="22">
+        <v>44</v>
+      </c>
+      <c r="U34" s="23">
+        <v>30</v>
+      </c>
+      <c r="V34" s="23">
+        <v>48</v>
+      </c>
+      <c r="W34" s="23">
+        <v>10</v>
+      </c>
+      <c r="X34" s="23">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1740,8 +2821,35 @@
       <c r="O35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>71</v>
+      </c>
+      <c r="U35">
+        <v>183</v>
+      </c>
+      <c r="V35">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>9</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H36" s="1"/>
       <c r="J36">
         <v>0.77</v>
@@ -1758,8 +2866,35 @@
       <c r="O36" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P36" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>4</v>
+      </c>
+      <c r="R36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>61</v>
+      </c>
+      <c r="U36" s="15">
+        <v>84</v>
+      </c>
+      <c r="V36" s="15">
+        <v>31</v>
+      </c>
+      <c r="W36" s="15">
+        <v>10</v>
+      </c>
+      <c r="X36" s="15">
+        <v>8</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15</v>
       </c>
@@ -1796,8 +2931,35 @@
       <c r="O37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37" s="16">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>61</v>
+      </c>
+      <c r="U37">
+        <v>247</v>
+      </c>
+      <c r="V37">
+        <v>31</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H38" s="1"/>
       <c r="J38">
         <v>0.77</v>
@@ -1814,8 +2976,35 @@
       <c r="O38" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P38" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>3</v>
+      </c>
+      <c r="R38" s="17">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>53</v>
+      </c>
+      <c r="U38" s="15">
+        <v>64</v>
+      </c>
+      <c r="V38" s="15">
+        <v>39</v>
+      </c>
+      <c r="W38" s="15">
+        <v>10</v>
+      </c>
+      <c r="X38" s="15">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1843,16 +3032,88 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>74</v>
+      </c>
+      <c r="O39">
+        <v>21</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39" s="16">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>68</v>
+      </c>
+      <c r="U39">
+        <v>174</v>
+      </c>
+      <c r="V39">
+        <v>24</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>0.77</v>
       </c>
       <c r="K40" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M40" s="3">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3">
+        <v>31</v>
+      </c>
+      <c r="O40" s="3">
+        <v>29</v>
+      </c>
+      <c r="P40" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>3</v>
+      </c>
+      <c r="R40" s="17">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>54</v>
+      </c>
+      <c r="U40" s="3">
+        <v>77</v>
+      </c>
+      <c r="V40" s="3">
+        <v>38</v>
+      </c>
+      <c r="W40" s="3">
+        <v>10</v>
+      </c>
+      <c r="X40" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
@@ -1878,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
       <c r="J42">
         <v>0.77</v>
@@ -1887,7 +3148,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -1913,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
       <c r="J44">
         <v>0.77</v>
@@ -1922,7 +3183,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>19</v>
       </c>
@@ -1948,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="J46">
         <v>0.77</v>
@@ -1957,7 +3218,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
@@ -1983,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J48">
         <v>0.77</v>
       </c>
@@ -1991,24 +3252,160 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
+      <c r="J50">
+        <v>0.77</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>22</v>
       </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="1"/>
+      <c r="J52">
+        <v>0.77</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H54" s="1"/>
+      <c r="J54">
+        <v>0.77</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>0.77</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:S1"/>
+  <mergeCells count="8">
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="M1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result_log.xlsx
+++ b/Result_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\412210037\Documents\Project\Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF41D53-EACC-4A80-A08D-BFA184114BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83EBAB6-1359-46A0-B9EF-CF11BA63F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>訓練次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,97 +135,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我們可以觀察到機率的控制其實不是篩選FP的主要變因，而是那個面積的閥值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闌尾炎資料前後20張</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FP超少！有一個病人的scane f1score高達0.9，而且slice的FP也降到3個。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜測：有沒有可能/4095正規化的作法不適合進行資料擴增?因為看起來只要沒有進行擴增資料的/4095都比mat2gray表現還要來得好，但是一旦有擴增資料後，/4095的表現就會比mat2gray還要差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error using 'forwardLoss' in Layer DicePixelClassificationLayer. The function threw an error and could not be executed.</t>
-  </si>
-  <si>
-    <t>Caused by: Out of memory.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Error using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="7"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>trainNetwork</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>line 191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>1（只擴增有遮罩的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一些想法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這次slice的FP也是只有2個！！但TP有維持6個！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！比上一個更好，是最好的一次，slice的FP也是3，盲猜個如果訓練到50Epoch表現應該會更好，甚至是100Epoch（I guess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闌尾炎資料前後20張 + 5個健康的人部分遮罩(3n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,14 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FP達到史上最低，但是FN很多==，然後slice的FP甚至降到2個！但是一個TP變成FN了QAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟第10次訓練結果滿像的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闌尾炎資料前後20張 + 10個健康的人部分遮罩(2n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +187,22 @@
   </si>
   <si>
     <t>驗證資料數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan - TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan - FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan - FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,27 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="7"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="7"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="新細明體"/>
@@ -342,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,12 +301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF3399"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -433,48 +335,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,38 +379,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,15 +439,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -863,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AQ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -879,65 +750,63 @@
     <col min="6" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="18" max="18" width="9" style="16"/>
-    <col min="19" max="19" width="31.25" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="5"/>
+    <col min="19" max="19" width="12.75" style="9" customWidth="1"/>
     <col min="34" max="34" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="29" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="AE1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AL1" s="31" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="AE1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AL1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -980,16 +849,19 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="T2" t="s">
         <v>15</v>
@@ -1001,19 +873,19 @@
         <v>17</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
         <v>15</v>
@@ -1022,16 +894,16 @@
         <v>16</v>
       </c>
       <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>47</v>
+      <c r="AJ2" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="AL2" t="s">
         <v>15</v>
@@ -1043,13 +915,13 @@
         <v>17</v>
       </c>
       <c r="AO2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AP2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -1095,8 +967,11 @@
       <c r="Q3">
         <v>4</v>
       </c>
-      <c r="R3" s="16">
-        <v>0</v>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.52228555300000001</v>
       </c>
       <c r="T3">
         <v>66</v>
@@ -1164,8 +1039,11 @@
       <c r="Q4" s="3">
         <v>4</v>
       </c>
-      <c r="R4" s="17">
-        <v>0</v>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.50876991258333337</v>
       </c>
       <c r="T4" s="3">
         <v>43</v>
@@ -1176,31 +1054,31 @@
       <c r="V4" s="3">
         <v>49</v>
       </c>
-      <c r="W4" s="15">
-        <v>10</v>
-      </c>
-      <c r="X4" s="15">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="15">
+      <c r="W4" s="8">
+        <v>10</v>
+      </c>
+      <c r="X4" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
         <v>26</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="8">
         <v>124</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG4" s="8">
         <v>34</v>
       </c>
-      <c r="AH4" s="15">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="15">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="15">
+      <c r="AH4" s="8">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1247,8 +1125,11 @@
       <c r="Q5">
         <v>4</v>
       </c>
-      <c r="R5" s="16">
-        <v>0</v>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.556817169</v>
       </c>
       <c r="T5">
         <v>63</v>
@@ -1310,11 +1191,11 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" s="16">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.55828327499999997</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
@@ -1339,8 +1220,11 @@
       <c r="Q7">
         <v>4</v>
       </c>
-      <c r="R7" s="16">
-        <v>0</v>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.58503238908333333</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
@@ -1365,8 +1249,11 @@
       <c r="Q8" s="3">
         <v>4</v>
       </c>
-      <c r="R8" s="17">
-        <v>0</v>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.5823524326666667</v>
       </c>
       <c r="T8" s="3">
         <v>36</v>
@@ -1448,8 +1335,11 @@
       <c r="Q9">
         <v>4</v>
       </c>
-      <c r="R9" s="16">
-        <v>0</v>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.57998162316666668</v>
       </c>
       <c r="T9">
         <v>85</v>
@@ -1517,25 +1407,28 @@
       <c r="Q10" s="3">
         <v>4</v>
       </c>
-      <c r="R10" s="17">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.65728164333333328</v>
+      </c>
+      <c r="T10" s="8">
         <v>54</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="8">
         <v>266</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="8">
         <v>38</v>
       </c>
-      <c r="W10" s="15">
-        <v>10</v>
-      </c>
-      <c r="X10" s="15">
+      <c r="W10" s="8">
+        <v>10</v>
+      </c>
+      <c r="X10" s="8">
         <v>9</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="8">
         <v>0</v>
       </c>
       <c r="AE10" s="3">
@@ -1600,8 +1493,11 @@
       <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11" s="16">
-        <v>0</v>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.56332116691666667</v>
       </c>
       <c r="T11">
         <v>79</v>
@@ -1644,25 +1540,28 @@
       <c r="Q12" s="3">
         <v>4</v>
       </c>
-      <c r="R12" s="17">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0.625582211</v>
+      </c>
+      <c r="T12" s="8">
         <v>67</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="8">
         <v>388</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="8">
         <v>25</v>
       </c>
-      <c r="W12" s="15">
-        <v>10</v>
-      </c>
-      <c r="X12" s="15">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="15">
+      <c r="W12" s="8">
+        <v>10</v>
+      </c>
+      <c r="X12" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1709,8 +1608,11 @@
       <c r="Q13">
         <v>4</v>
       </c>
-      <c r="R13" s="16">
-        <v>0</v>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0.65569589900000003</v>
       </c>
       <c r="T13">
         <v>61</v>
@@ -1754,25 +1656,28 @@
       <c r="Q14" s="3">
         <v>4</v>
       </c>
-      <c r="R14" s="17">
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.63404761899999995</v>
+      </c>
+      <c r="T14" s="8">
         <v>44</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="8">
         <v>149</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="8">
         <v>48</v>
       </c>
-      <c r="W14" s="15">
-        <v>10</v>
-      </c>
-      <c r="X14" s="15">
+      <c r="W14" s="8">
+        <v>10</v>
+      </c>
+      <c r="X14" s="8">
         <v>9</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1819,8 +1724,11 @@
       <c r="Q15">
         <v>4</v>
       </c>
-      <c r="R15" s="16">
-        <v>0</v>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0.62488242299999996</v>
       </c>
       <c r="T15">
         <v>73</v>
@@ -1864,25 +1772,28 @@
       <c r="Q16" s="3">
         <v>4</v>
       </c>
-      <c r="R16" s="17">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0.69347004099999998</v>
+      </c>
+      <c r="T16" s="8">
         <v>62</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="8">
         <v>221</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="8">
         <v>30</v>
       </c>
-      <c r="W16" s="15">
-        <v>10</v>
-      </c>
-      <c r="X16" s="15">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="15">
+      <c r="W16" s="8">
+        <v>10</v>
+      </c>
+      <c r="X16" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1929,8 +1840,11 @@
       <c r="Q17">
         <v>4</v>
       </c>
-      <c r="R17" s="16">
-        <v>0</v>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.67319267500000002</v>
       </c>
       <c r="T17">
         <v>64</v>
@@ -1974,25 +1888,28 @@
       <c r="Q18" s="3">
         <v>4</v>
       </c>
-      <c r="R18" s="17">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.66975096700000003</v>
+      </c>
+      <c r="T18" s="8">
         <v>48</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="8">
         <v>114</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="8">
         <v>44</v>
       </c>
-      <c r="W18" s="15">
-        <v>10</v>
-      </c>
-      <c r="X18" s="15">
+      <c r="W18" s="8">
+        <v>10</v>
+      </c>
+      <c r="X18" s="8">
         <v>8</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2039,11 +1956,11 @@
       <c r="Q19">
         <v>4</v>
       </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>28</v>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.70370169999999999</v>
       </c>
       <c r="T19">
         <v>76</v>
@@ -2086,34 +2003,37 @@
       <c r="Q20" s="3">
         <v>4</v>
       </c>
-      <c r="R20" s="17">
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0.68738876900000001</v>
+      </c>
+      <c r="T20" s="8">
         <v>60</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="8">
         <v>130</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="8">
         <v>32</v>
       </c>
-      <c r="W20" s="15">
-        <v>10</v>
-      </c>
-      <c r="X20" s="15">
+      <c r="W20" s="8">
+        <v>10</v>
+      </c>
+      <c r="X20" s="8">
         <v>9</v>
       </c>
-      <c r="Y20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>6141</v>
@@ -2151,8 +2071,11 @@
       <c r="Q21">
         <v>4</v>
       </c>
-      <c r="R21" s="16">
-        <v>0</v>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.703715957</v>
       </c>
       <c r="T21">
         <v>54</v>
@@ -2173,36 +2096,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="12" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H22" s="13"/>
-      <c r="J22" s="12">
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="6"/>
+      <c r="J22" s="5">
         <v>0.77</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="7">
         <v>0.09</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="8">
         <v>39</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="8">
         <v>19</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="8">
         <v>21</v>
       </c>
-      <c r="P22" s="15">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="15">
+      <c r="P22" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="8">
         <v>3</v>
       </c>
-      <c r="R22" s="17">
-        <v>0</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="20">
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0.74480254000000001</v>
+      </c>
+      <c r="T22" s="8">
         <v>48</v>
       </c>
       <c r="U22" s="8">
@@ -2217,16 +2140,16 @@
       <c r="X22" s="8">
         <v>7</v>
       </c>
-      <c r="Y22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>6141</v>
@@ -2264,8 +2187,11 @@
       <c r="Q23">
         <v>4</v>
       </c>
-      <c r="R23" s="16">
-        <v>0</v>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="23">
+        <v>0.72823891600000001</v>
       </c>
       <c r="T23">
         <v>54</v>
@@ -2286,8 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H24" s="6"/>
       <c r="J24" s="5">
         <v>0.77</v>
@@ -2310,11 +2235,11 @@
       <c r="Q24" s="8">
         <v>3</v>
       </c>
-      <c r="R24" s="18">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>37</v>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0.74064814800000001</v>
       </c>
       <c r="T24" s="8">
         <v>43</v>
@@ -2336,17 +2261,17 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>35</v>
+      <c r="A25">
+        <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>7485</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
-      </c>
-      <c r="C25">
-        <v>12282</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -2363,19 +2288,47 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="19"/>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>29</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="23">
+        <v>0.70639568799999997</v>
+      </c>
+      <c r="T25">
+        <v>57</v>
+      </c>
+      <c r="U25">
+        <v>91</v>
+      </c>
+      <c r="V25">
+        <v>35</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
       <c r="H26" s="1"/>
       <c r="J26">
         <v>0.77</v>
@@ -2383,27 +2336,58 @@
       <c r="K26" s="2">
         <v>0.09</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="19"/>
+      <c r="M26" s="3">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3">
+        <v>9</v>
+      </c>
+      <c r="O26" s="3">
+        <v>34</v>
+      </c>
+      <c r="P26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0.69119801800000003</v>
+      </c>
+      <c r="T26" s="8">
+        <v>43</v>
+      </c>
+      <c r="U26" s="8">
+        <v>44</v>
+      </c>
+      <c r="V26" s="8">
+        <v>49</v>
+      </c>
+      <c r="W26" s="8">
+        <v>10</v>
+      </c>
+      <c r="X26" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>35</v>
+      <c r="A27">
+        <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>7485</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
-      </c>
-      <c r="C27">
-        <v>12282</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -2420,44 +2404,105 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="19"/>
+      <c r="M27">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>54</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0.69868768299999995</v>
+      </c>
+      <c r="T27">
+        <v>74</v>
+      </c>
+      <c r="U27">
+        <v>185</v>
+      </c>
+      <c r="V27">
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
       <c r="J28">
         <v>0.77</v>
       </c>
       <c r="K28" s="2">
         <v>0.09</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="19"/>
+      <c r="M28" s="3">
+        <v>34</v>
+      </c>
+      <c r="N28" s="3">
+        <v>21</v>
+      </c>
+      <c r="O28" s="3">
+        <v>26</v>
+      </c>
+      <c r="P28" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0.73820970699999999</v>
+      </c>
+      <c r="T28" s="8">
+        <v>50</v>
+      </c>
+      <c r="U28" s="8">
+        <v>75</v>
+      </c>
+      <c r="V28" s="8">
+        <v>42</v>
+      </c>
+      <c r="W28" s="8">
+        <v>10</v>
+      </c>
+      <c r="X28" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>7485</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
+        <v>6289</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -2475,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N29">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -2489,23 +2534,26 @@
       <c r="Q29">
         <v>4</v>
       </c>
-      <c r="R29" s="16">
-        <v>0</v>
+      <c r="R29" s="5">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0.72569444500000002</v>
       </c>
       <c r="T29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W29">
         <v>10</v>
       </c>
       <c r="X29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2520,57 +2568,57 @@
         <v>0.09</v>
       </c>
       <c r="M30" s="3">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N30" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O30" s="3">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="3">
-        <v>2</v>
-      </c>
-      <c r="R30" s="17">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="20">
-        <v>43</v>
-      </c>
-      <c r="U30" s="8">
+        <v>3</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="24">
+        <v>0.74684769399999995</v>
+      </c>
+      <c r="T30" s="11">
         <v>44</v>
       </c>
-      <c r="V30" s="8">
-        <v>49</v>
-      </c>
-      <c r="W30" s="8">
-        <v>10</v>
-      </c>
-      <c r="X30" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y30" s="21">
+      <c r="U30" s="11">
+        <v>30</v>
+      </c>
+      <c r="V30" s="11">
+        <v>48</v>
+      </c>
+      <c r="W30" s="11">
+        <v>10</v>
+      </c>
+      <c r="X30" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>7485</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
+        <v>6289</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -2588,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N31">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P31">
         <v>6</v>
@@ -2602,29 +2650,33 @@
       <c r="Q31">
         <v>4</v>
       </c>
-      <c r="R31" s="16">
-        <v>0</v>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0.72915095500000005</v>
       </c>
       <c r="T31">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U31">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V31">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W31">
         <v>10</v>
       </c>
       <c r="X31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
       <c r="J32">
         <v>0.77</v>
       </c>
@@ -2632,57 +2684,57 @@
         <v>0.09</v>
       </c>
       <c r="M32" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N32" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O32" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P32" s="3">
         <v>6</v>
       </c>
       <c r="Q32" s="3">
-        <v>2</v>
-      </c>
-      <c r="R32" s="17">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" s="15">
-        <v>50</v>
-      </c>
-      <c r="U32" s="15">
-        <v>75</v>
-      </c>
-      <c r="V32" s="15">
-        <v>42</v>
-      </c>
-      <c r="W32" s="15">
-        <v>10</v>
-      </c>
-      <c r="X32" s="15">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0.73857503599999996</v>
+      </c>
+      <c r="T32" s="8">
+        <v>61</v>
+      </c>
+      <c r="U32" s="8">
+        <v>84</v>
+      </c>
+      <c r="V32" s="8">
+        <v>31</v>
+      </c>
+      <c r="W32" s="8">
+        <v>10</v>
+      </c>
+      <c r="X32" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>6289</v>
+        <v>7633</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2700,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N33">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P33">
         <v>6</v>
@@ -2714,29 +2766,32 @@
       <c r="Q33">
         <v>4</v>
       </c>
-      <c r="R33" s="16">
-        <v>0</v>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0.66302469100000005</v>
       </c>
       <c r="T33">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="U33">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="V33">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W33">
         <v>10</v>
       </c>
       <c r="X33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H34" s="1"/>
       <c r="J34">
         <v>0.77</v>
@@ -2745,13 +2800,13 @@
         <v>0.09</v>
       </c>
       <c r="M34" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N34" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O34" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P34" s="3">
         <v>6</v>
@@ -2759,43 +2814,43 @@
       <c r="Q34" s="3">
         <v>3</v>
       </c>
-      <c r="R34" s="17">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>42</v>
-      </c>
-      <c r="T34" s="22">
-        <v>44</v>
-      </c>
-      <c r="U34" s="23">
-        <v>30</v>
-      </c>
-      <c r="V34" s="23">
-        <v>48</v>
-      </c>
-      <c r="W34" s="23">
-        <v>10</v>
-      </c>
-      <c r="X34" s="23">
-        <v>4</v>
-      </c>
-      <c r="Y34" s="24">
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0.72341269799999997</v>
+      </c>
+      <c r="T34" s="8">
+        <v>53</v>
+      </c>
+      <c r="U34" s="8">
+        <v>64</v>
+      </c>
+      <c r="V34" s="8">
+        <v>39</v>
+      </c>
+      <c r="W34" s="8">
+        <v>10</v>
+      </c>
+      <c r="X34" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>6289</v>
+        <v>7633</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -2813,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N35">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O35">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P35">
         <v>6</v>
@@ -2827,30 +2882,32 @@
       <c r="Q35">
         <v>4</v>
       </c>
-      <c r="R35" s="16">
-        <v>0</v>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0.65503408600000002</v>
       </c>
       <c r="T35">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U35">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="V35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W35">
         <v>10</v>
       </c>
       <c r="X35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H36" s="1"/>
       <c r="J36">
         <v>0.77</v>
       </c>
@@ -2858,54 +2915,54 @@
         <v>0.09</v>
       </c>
       <c r="M36" s="3">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N36" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O36" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P36" s="3">
         <v>6</v>
       </c>
       <c r="Q36" s="3">
-        <v>4</v>
-      </c>
-      <c r="R36" s="17">
-        <v>0</v>
-      </c>
-      <c r="T36" s="15">
-        <v>61</v>
-      </c>
-      <c r="U36" s="15">
-        <v>84</v>
-      </c>
-      <c r="V36" s="15">
-        <v>31</v>
-      </c>
-      <c r="W36" s="15">
-        <v>10</v>
-      </c>
-      <c r="X36" s="15">
-        <v>8</v>
-      </c>
-      <c r="Y36" s="15">
+        <v>3</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0.67051541100000001</v>
+      </c>
+      <c r="T36" s="3">
+        <v>54</v>
+      </c>
+      <c r="U36" s="3">
+        <v>77</v>
+      </c>
+      <c r="V36" s="3">
+        <v>38</v>
+      </c>
+      <c r="W36" s="3">
+        <v>10</v>
+      </c>
+      <c r="X36" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>7633</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2920,42 +2977,6 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>43</v>
-      </c>
-      <c r="N37">
-        <v>98</v>
-      </c>
-      <c r="O37">
-        <v>17</v>
-      </c>
-      <c r="P37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <v>4</v>
-      </c>
-      <c r="R37" s="16">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>61</v>
-      </c>
-      <c r="U37">
-        <v>247</v>
-      </c>
-      <c r="V37">
-        <v>31</v>
-      </c>
-      <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="X37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
         <v>0</v>
       </c>
     </row>
@@ -2967,55 +2988,28 @@
       <c r="K38" s="2">
         <v>0.09</v>
       </c>
-      <c r="M38" s="3">
-        <v>35</v>
-      </c>
-      <c r="N38" s="3">
-        <v>21</v>
-      </c>
-      <c r="O38" s="3">
-        <v>25</v>
-      </c>
-      <c r="P38" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>3</v>
-      </c>
-      <c r="R38" s="17">
-        <v>0</v>
-      </c>
-      <c r="T38" s="15">
-        <v>53</v>
-      </c>
-      <c r="U38" s="15">
-        <v>64</v>
-      </c>
-      <c r="V38" s="15">
-        <v>39</v>
-      </c>
-      <c r="W38" s="15">
-        <v>10</v>
-      </c>
-      <c r="X38" s="15">
-        <v>8</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>0</v>
-      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="8"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>7633</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
@@ -3032,96 +3026,40 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>39</v>
-      </c>
-      <c r="N39">
-        <v>74</v>
-      </c>
-      <c r="O39">
-        <v>21</v>
-      </c>
-      <c r="P39">
-        <v>6</v>
-      </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
-      <c r="R39" s="16">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>68</v>
-      </c>
-      <c r="U39">
-        <v>174</v>
-      </c>
-      <c r="V39">
-        <v>24</v>
-      </c>
-      <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="X39">
-        <v>10</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
       <c r="J40">
         <v>0.77</v>
       </c>
       <c r="K40" s="2">
         <v>0.09</v>
       </c>
-      <c r="M40" s="3">
-        <v>31</v>
-      </c>
-      <c r="N40" s="3">
-        <v>31</v>
-      </c>
-      <c r="O40" s="3">
-        <v>29</v>
-      </c>
-      <c r="P40" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>3</v>
-      </c>
-      <c r="R40" s="17">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <v>54</v>
-      </c>
-      <c r="U40" s="3">
-        <v>77</v>
-      </c>
-      <c r="V40" s="3">
-        <v>38</v>
-      </c>
-      <c r="W40" s="3">
-        <v>10</v>
-      </c>
-      <c r="X40" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0</v>
-      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="8"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>7705</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -3137,6 +3075,27 @@
       </c>
       <c r="K41">
         <v>0</v>
+      </c>
+      <c r="M41">
+        <v>51</v>
+      </c>
+      <c r="N41">
+        <v>73</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0.70777153599999998</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -3147,16 +3106,46 @@
       <c r="K42" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>42</v>
+      </c>
+      <c r="N42" s="3">
+        <v>24</v>
+      </c>
+      <c r="O42" s="3">
+        <v>18</v>
+      </c>
+      <c r="P42" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>4</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0.73044946600000005</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>7705</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
@@ -3173,25 +3162,72 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H44" s="1"/>
+      <c r="M43">
+        <v>43</v>
+      </c>
+      <c r="N43">
+        <v>53</v>
+      </c>
+      <c r="O43">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0.70134189599999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J44">
         <v>0.77</v>
       </c>
       <c r="K44" s="2">
         <v>0.09</v>
       </c>
+      <c r="M44" s="3">
+        <v>36</v>
+      </c>
+      <c r="N44" s="3">
+        <v>17</v>
+      </c>
+      <c r="O44" s="3">
+        <v>24</v>
+      </c>
+      <c r="P44" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0.75216450199999996</v>
+      </c>
+      <c r="T44" s="10"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="12"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -3217,16 +3253,28 @@
       <c r="K46" s="2">
         <v>0.09</v>
       </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="8"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
@@ -3245,22 +3293,35 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
       <c r="J48">
         <v>0.77</v>
       </c>
       <c r="K48" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="8"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -3278,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H50" s="1"/>
       <c r="J50">
         <v>0.77</v>
@@ -3286,16 +3347,28 @@
       <c r="K50" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="8"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
@@ -3313,87 +3386,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H52" s="1"/>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>0.77</v>
       </c>
       <c r="K52" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H54" s="1"/>
-      <c r="J54">
-        <v>0.77</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>24</v>
-      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="8"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55">
-        <v>30</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J56">
-        <v>0.77</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3420,7 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result_log.xlsx
+++ b/Result_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\412210037\Documents\Project\Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83EBAB6-1359-46A0-B9EF-CF11BA63F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55ECE4-7B40-4E96-B1F9-24CFEE62A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>訓練次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>闌尾炎資料前後20張</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1（只擴增有遮罩的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -394,11 +390,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,6 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,11 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -736,18 +749,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="11" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="9.25" customWidth="1"/>
     <col min="18" max="18" width="9" style="5"/>
@@ -756,57 +772,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="23"/>
+      <c r="M1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="AE1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AL1" s="15" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="AE1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AL1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -849,19 +865,19 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="T2" t="s">
         <v>15</v>
@@ -873,19 +889,19 @@
         <v>17</v>
       </c>
       <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
       <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
         <v>37</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>38</v>
       </c>
       <c r="AE2" t="s">
         <v>15</v>
@@ -894,16 +910,16 @@
         <v>16</v>
       </c>
       <c r="AG2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="AL2" t="s">
         <v>15</v>
@@ -915,13 +931,13 @@
         <v>17</v>
       </c>
       <c r="AO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" t="s">
         <v>33</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>34</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -2190,7 +2206,7 @@
       <c r="R23" s="5">
         <v>0</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="14">
         <v>0.72823891600000001</v>
       </c>
       <c r="T23">
@@ -2270,8 +2286,8 @@
       <c r="C25">
         <v>7485</v>
       </c>
-      <c r="D25" t="s">
-        <v>26</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -2306,7 +2322,7 @@
       <c r="R25" s="5">
         <v>0</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="14">
         <v>0.70639568799999997</v>
       </c>
       <c r="T25">
@@ -2386,8 +2402,8 @@
       <c r="C27">
         <v>7485</v>
       </c>
-      <c r="D27" t="s">
-        <v>26</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -2496,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>6289</v>
@@ -2585,7 +2601,7 @@
       <c r="R30" s="8">
         <v>0</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="15">
         <v>0.74684769399999995</v>
       </c>
       <c r="T30" s="11">
@@ -2612,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>6289</v>
@@ -2728,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>7633</v>
@@ -2844,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>7633</v>
@@ -2959,7 +2975,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>6361</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2979,8 +2998,47 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37" s="16">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.70770676700000001</v>
+      </c>
+      <c r="T37" s="16">
+        <v>50</v>
+      </c>
+      <c r="U37" s="16">
+        <v>109</v>
+      </c>
+      <c r="V37" s="16">
+        <v>42</v>
+      </c>
+      <c r="W37" s="16">
+        <v>10</v>
+      </c>
+      <c r="X37" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
       <c r="J38">
         <v>0.77</v>
@@ -2988,25 +3046,55 @@
       <c r="K38" s="2">
         <v>0.09</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="8"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M38" s="3">
+        <v>27</v>
+      </c>
+      <c r="N38" s="3">
+        <v>11</v>
+      </c>
+      <c r="O38" s="3">
+        <v>33</v>
+      </c>
+      <c r="P38" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>2</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0.70355933500000001</v>
+      </c>
+      <c r="T38" s="3">
+        <v>37</v>
+      </c>
+      <c r="U38" s="3">
+        <v>27</v>
+      </c>
+      <c r="V38" s="3">
+        <v>55</v>
+      </c>
+      <c r="W38" s="3">
+        <v>10</v>
+      </c>
+      <c r="X38" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>6361</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3026,8 +3114,47 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>49</v>
+      </c>
+      <c r="N39">
+        <v>54</v>
+      </c>
+      <c r="O39">
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" s="16">
+        <v>0</v>
+      </c>
+      <c r="S39" s="26">
+        <v>0.7589638212187233</v>
+      </c>
+      <c r="T39" s="16">
+        <v>55</v>
+      </c>
+      <c r="U39" s="16">
+        <v>132</v>
+      </c>
+      <c r="V39" s="16">
+        <v>37</v>
+      </c>
+      <c r="W39" s="16">
+        <v>10</v>
+      </c>
+      <c r="X39" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H40" s="1"/>
       <c r="J40">
         <v>0.77</v>
@@ -3035,25 +3162,52 @@
       <c r="K40" s="2">
         <v>0.09</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="8"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
+      <c r="M40" s="3">
+        <v>43</v>
+      </c>
+      <c r="N40" s="3">
+        <v>17</v>
+      </c>
+      <c r="O40" s="3">
+        <v>17</v>
+      </c>
+      <c r="P40" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0.81144491129785201</v>
+      </c>
+      <c r="T40" s="10">
+        <v>43</v>
+      </c>
+      <c r="U40" s="11">
+        <v>48</v>
+      </c>
+      <c r="V40" s="11">
+        <v>49</v>
+      </c>
+      <c r="W40" s="11">
+        <v>10</v>
+      </c>
+      <c r="X40" s="11">
+        <v>9</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>7705</v>
@@ -3096,6 +3250,24 @@
       </c>
       <c r="S41" s="9">
         <v>0.70777153599999998</v>
+      </c>
+      <c r="T41" s="16">
+        <v>65</v>
+      </c>
+      <c r="U41" s="16">
+        <v>171</v>
+      </c>
+      <c r="V41" s="16">
+        <v>27</v>
+      </c>
+      <c r="W41" s="16">
+        <v>10</v>
+      </c>
+      <c r="X41" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -3127,19 +3299,31 @@
       <c r="S42" s="9">
         <v>0.73044946600000005</v>
       </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
+      <c r="T42" s="3">
+        <v>47</v>
+      </c>
+      <c r="U42" s="3">
+        <v>65</v>
+      </c>
+      <c r="V42" s="3">
+        <v>45</v>
+      </c>
+      <c r="W42" s="3">
+        <v>10</v>
+      </c>
+      <c r="X42" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>7705</v>
@@ -3182,6 +3366,24 @@
       </c>
       <c r="S43" s="9">
         <v>0.70134189599999996</v>
+      </c>
+      <c r="T43" s="16">
+        <v>58</v>
+      </c>
+      <c r="U43" s="16">
+        <v>155</v>
+      </c>
+      <c r="V43" s="16">
+        <v>34</v>
+      </c>
+      <c r="W43" s="16">
+        <v>10</v>
+      </c>
+      <c r="X43" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3212,19 +3414,31 @@
       <c r="S44" s="4">
         <v>0.75216450199999996</v>
       </c>
-      <c r="T44" s="10"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="12"/>
+      <c r="T44" s="10">
+        <v>39</v>
+      </c>
+      <c r="U44" s="11">
+        <v>60</v>
+      </c>
+      <c r="V44" s="11">
+        <v>53</v>
+      </c>
+      <c r="W44" s="11">
+        <v>9</v>
+      </c>
+      <c r="X44" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3271,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3318,7 +3532,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3365,7 +3579,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3408,7 +3622,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Result_log.xlsx
+++ b/Result_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\412210037\Documents\Project\Team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55ECE4-7B40-4E96-B1F9-24CFEE62A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83252976-4ABB-4CDA-87A9-DB69003A6444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,6 +429,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,7 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -772,57 +772,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="24"/>
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="24" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="AE1" s="17" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="AE1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AL1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3132,7 +3132,7 @@
       <c r="R39" s="16">
         <v>0</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="17">
         <v>0.7589638212187233</v>
       </c>
       <c r="T39" s="16">
@@ -3458,6 +3458,7 @@
       <c r="K45">
         <v>0</v>
       </c>
+      <c r="R45" s="16"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
